--- a/data/trans_camb/P55_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P55_3-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-3,23</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,24</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-3.229837279578063</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.921012547636384</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.511391379347615</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,28; 2,29</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 12,37</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 5,86</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.46560884306343</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.164590199590517</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.409154131816893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,39%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,19%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,21%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.556365703561313</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.91624292703103</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>6.23099812214871</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,47; 2,44</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,27; 15,43</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-3,93; 6,78</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.03396091053710998</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.0700882935276857</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01687113189970968</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-5,93</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-12,36</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-9,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.09819773972413065</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.01294217801780656</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.03693848591891957</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-13,68; 0,45</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-26,8; -3,2</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-17,34; -3,57</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.02698699706297474</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.1637122621973048</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.07140537472849809</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-6,36%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-13,53%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-10,0%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-6.558858822559611</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-11.07063540807469</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-8.873280456414111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-14,59; 0,33</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-30,1; -3,86</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-18,71; -4,02</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-14.80294162026606</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-23.71749437107852</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-16.11721650090466</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>15,35</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,58</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>9,06</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.4776799114309083</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-2.520705580091059</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-3.694654057501442</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-12,79; 57,44</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,71; 17,38</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,39; 35,64</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.07013901358410066</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.1212204087248251</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.0960235844893349</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>21,48%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,96%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>11,44%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.1553278880708442</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2550506880447763</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1777223526073474</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-13,82; 154,84</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-12,3; 22,55</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-5,94; 68,86</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>-0.006222642348580623</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>-0.02896971800158909</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>-0.04093806760391509</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-2,26</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,99</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,15</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>14.92118239751598</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.6592561806105235</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>7.705927702200333</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-7,68; 4,79</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-9,15; 3,0</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-6,35; 2,72</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-12.03903932371176</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-14.9782015719825</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-6.098979153413387</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-2,46%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-2,27%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-2,4%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>56.50737221377329</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>15.83296883772336</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>32.72895585060878</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-8,14; 5,5</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-10,22; 3,46</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-6,96; 3,15</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.2046011167004494</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.007509532628710016</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.09580137118780316</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.1308857637600636</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1572508161451256</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.06727390962270093</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>1.416262902118389</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.1997376806631946</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.614259206477739</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.586600915058279</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.379645088299086</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-1.983554835462908</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-8.263482826333224</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-7.509710210423156</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-6.003643936640271</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>4.076540217688289</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3.651091936905206</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>2.758865365329249</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.02810727851515868</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.01574316628641916</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.02209430043773551</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.08764434685766649</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.0868325924918343</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.06564820274214106</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.04697808511436767</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.04118677082275841</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.0314680175338102</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
